--- a/phpprog/residenza ranitaria (RSA)/residenza sanitaria piano terra o terreno.xlsx
+++ b/phpprog/residenza ranitaria (RSA)/residenza sanitaria piano terra o terreno.xlsx
@@ -5,20 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\fbsrl\residenza sanitaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE89176-ED4D-418F-8C6A-B13219B111B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44A533D-8C6B-4664-83A0-941518582462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antincendio 02-A" sheetId="1" r:id="rId1"/>
     <sheet name="idrico sanitario 02-I" sheetId="2" r:id="rId2"/>
     <sheet name="pannelli radianti 03-T" sheetId="3" r:id="rId3"/>
-    <sheet name="bagni" sheetId="4" r:id="rId4"/>
-    <sheet name="Aria ripresa 06-C" sheetId="5" r:id="rId5"/>
-    <sheet name="Aria mandata 05-C" sheetId="6" r:id="rId6"/>
+    <sheet name="Aria ripresa 06-C" sheetId="5" r:id="rId4"/>
+    <sheet name="Aria mandata 05-C" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t>diametro in pollici</t>
   </si>
@@ -72,33 +71,6 @@
   </si>
   <si>
     <t>4"</t>
-  </si>
-  <si>
-    <t>bagni disabili</t>
-  </si>
-  <si>
-    <t>bagni non disabili</t>
-  </si>
-  <si>
-    <t>water disabili</t>
-  </si>
-  <si>
-    <t>water non disabili</t>
-  </si>
-  <si>
-    <t>lavandini disabili</t>
-  </si>
-  <si>
-    <t>lavandini non disabili</t>
-  </si>
-  <si>
-    <t>vasche</t>
-  </si>
-  <si>
-    <t>docce disabili</t>
-  </si>
-  <si>
-    <t>docce non disabili</t>
   </si>
   <si>
     <t>Tubazioni</t>
@@ -909,103 +881,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20F34FB-0339-4D54-8618-FADC2DC94DB2}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27863C9C-FA66-4B99-8976-2048DEAC409D}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1022,48 +901,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4">
         <v>41</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6">
         <v>120</v>
@@ -1080,14 +959,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>24</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6">
         <v>100</v>
@@ -1104,14 +983,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4">
         <v>32.5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <v>110</v>
@@ -1128,14 +1007,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4">
         <v>41</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5">
         <v>140</v>
@@ -1152,14 +1031,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4">
         <v>41.5</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5">
         <v>200</v>
@@ -1176,14 +1055,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4">
         <v>21</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5">
         <v>150</v>
@@ -1200,14 +1079,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5">
         <v>180</v>
@@ -1224,14 +1103,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4">
         <v>2.5</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5">
         <v>150</v>
@@ -1248,14 +1127,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4">
         <v>14</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5">
         <v>200</v>
@@ -1272,14 +1151,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4">
         <v>10.5</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5">
         <v>200</v>
@@ -1296,14 +1175,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4">
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5">
         <v>140</v>
@@ -1320,14 +1199,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4">
         <v>17</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7">
         <v>250</v>
@@ -1344,14 +1223,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4">
         <v>21.5</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E15" s="7">
         <v>250</v>
@@ -1368,14 +1247,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4">
         <v>14.5</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E16" s="7">
         <v>300</v>
@@ -1392,14 +1271,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B17" s="4">
         <v>4.5</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E17" s="7">
         <v>300</v>
@@ -1416,14 +1295,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E18" s="8">
         <v>100</v>
@@ -1440,14 +1319,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4">
         <v>3.5</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8">
         <v>150</v>
@@ -1464,14 +1343,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4">
         <v>14.5</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E20" s="8">
         <v>120</v>
@@ -1488,14 +1367,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E21" s="8">
         <v>100</v>
@@ -1512,14 +1391,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E22" s="9">
         <v>50</v>
@@ -1536,14 +1415,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E23" s="9">
         <v>40</v>
@@ -1560,14 +1439,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4">
         <v>2.5</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E24" s="9">
         <v>60</v>
@@ -1585,7 +1464,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="D25" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E25" s="9">
         <v>50</v>
@@ -1603,7 +1482,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E26" s="10">
         <v>80</v>
@@ -1621,7 +1500,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
       <c r="D27" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E27" s="10">
         <v>125</v>
@@ -1639,7 +1518,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
       <c r="D28" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E28" s="10">
         <v>125</v>
@@ -1657,7 +1536,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
       <c r="D29" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E29" s="10">
         <v>100</v>
@@ -1675,7 +1554,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
       <c r="D30" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E30" s="10">
         <v>60</v>
@@ -1693,7 +1572,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E31" s="4">
         <v>220</v>
@@ -2008,11 +1887,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE39971-0C64-4C64-9BBB-D36ABDDD9EEC}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2029,48 +1908,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4">
         <v>185</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6">
         <v>100</v>
@@ -2087,14 +1966,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>10</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6">
         <v>100</v>
@@ -2111,14 +1990,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4">
         <v>8.5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <v>125</v>
@@ -2135,14 +2014,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4">
         <v>41.5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6">
         <v>120</v>
@@ -2159,14 +2038,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4">
         <v>7.5</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6">
         <v>125</v>
@@ -2183,14 +2062,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>41</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E8" s="6">
         <v>120</v>
@@ -2207,14 +2086,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>33.700000000000003</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E9" s="6">
         <v>150</v>
@@ -2231,14 +2110,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5">
         <v>200</v>
@@ -2255,14 +2134,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5">
         <v>200</v>
@@ -2279,14 +2158,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5">
         <v>140</v>
@@ -2303,14 +2182,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5">
         <v>140</v>
@@ -2327,14 +2206,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4">
         <v>0.5</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5">
         <v>200</v>
@@ -2351,14 +2230,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4">
         <v>20</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E15" s="5">
         <v>150</v>
@@ -2375,14 +2254,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4">
         <v>20.5</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E16" s="5">
         <v>250</v>
@@ -2399,14 +2278,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4">
         <v>4.5</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E17" s="14">
         <v>300</v>
@@ -2423,14 +2302,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4">
         <v>6</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E18" s="14">
         <v>300</v>
@@ -2447,14 +2326,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4">
         <v>4.5</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E19" s="14">
         <v>250</v>
@@ -2471,14 +2350,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4">
         <v>7</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E20" s="14">
         <v>250</v>
@@ -2495,14 +2374,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4">
         <v>11</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E21" s="14">
         <v>250</v>
@@ -2519,7 +2398,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4">
         <v>7.5</v>
@@ -2529,7 +2408,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4">
         <v>2</v>

--- a/phpprog/residenza ranitaria (RSA)/residenza sanitaria piano terra o terreno.xlsx
+++ b/phpprog/residenza ranitaria (RSA)/residenza sanitaria piano terra o terreno.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44A533D-8C6B-4664-83A0-941518582462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18138D1A-3EE5-4000-8A18-1DD254FB9DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antincendio 02-A" sheetId="1" r:id="rId1"/>
     <sheet name="idrico sanitario 02-I" sheetId="2" r:id="rId2"/>
-    <sheet name="pannelli radianti 03-T" sheetId="3" r:id="rId3"/>
-    <sheet name="Aria ripresa 06-C" sheetId="5" r:id="rId4"/>
-    <sheet name="Aria mandata 05-C" sheetId="6" r:id="rId5"/>
+    <sheet name="Aque nere 02-S" sheetId="7" r:id="rId3"/>
+    <sheet name="cucina" sheetId="8" r:id="rId4"/>
+    <sheet name="pannelli radianti 03-T" sheetId="3" r:id="rId5"/>
+    <sheet name="Aria ripresa 06-C" sheetId="5" r:id="rId6"/>
+    <sheet name="Aria mandata 05-C" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>diametro in pollici</t>
   </si>
@@ -188,13 +190,25 @@
   </si>
   <si>
     <t>700x350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punti </t>
+  </si>
+  <si>
+    <t>Punti solo scarico</t>
+  </si>
+  <si>
+    <t>Scarico + carico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT Punti </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +226,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -324,6 +353,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -672,7 +703,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,6 +821,218 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D108558-2669-4BAB-A1FC-BC34BF22D934}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6048FFD2-5179-4432-B99B-1476C07B8901}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653C9784-065B-4759-80AC-DA9094D66780}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -880,11 +1123,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27863C9C-FA66-4B99-8976-2048DEAC409D}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1887,7 +2130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE39971-0C64-4C64-9BBB-D36ABDDD9EEC}">
   <dimension ref="A1:H129"/>
   <sheetViews>
